--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.006162666666666667</v>
+        <v>0.02027766666666667</v>
       </c>
       <c r="N2">
-        <v>0.018488</v>
+        <v>0.060833</v>
       </c>
       <c r="O2">
-        <v>0.1851725726648104</v>
+        <v>0.7477567175553752</v>
       </c>
       <c r="P2">
-        <v>0.1851725726648104</v>
+        <v>0.7477567175553753</v>
       </c>
       <c r="Q2">
-        <v>1.255838472119111</v>
+        <v>1.682796532757667</v>
       </c>
       <c r="R2">
-        <v>11.302546249072</v>
+        <v>15.145168794819</v>
       </c>
       <c r="S2">
-        <v>0.1234606203007531</v>
+        <v>0.3357056860803754</v>
       </c>
       <c r="T2">
-        <v>0.1234606203007531</v>
+        <v>0.3357056860803754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02027766666666667</v>
+        <v>0.006840333333333334</v>
       </c>
       <c r="N3">
-        <v>0.06083300000000001</v>
+        <v>0.020521</v>
       </c>
       <c r="O3">
-        <v>0.6092926824382525</v>
+        <v>0.2522432824446247</v>
       </c>
       <c r="P3">
-        <v>0.6092926824382525</v>
+        <v>0.2522432824446247</v>
       </c>
       <c r="Q3">
-        <v>4.132216668889112</v>
+        <v>0.5676634006003334</v>
       </c>
       <c r="R3">
-        <v>37.18995002000201</v>
+        <v>5.108970605403</v>
       </c>
       <c r="S3">
-        <v>0.4062353913217067</v>
+        <v>0.1132447254624198</v>
       </c>
       <c r="T3">
-        <v>0.4062353913217068</v>
+        <v>0.1132447254624198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>203.7816646666667</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H4">
-        <v>611.344994</v>
+        <v>189.421768</v>
       </c>
       <c r="I4">
-        <v>0.6667327591988204</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J4">
-        <v>0.6667327591988205</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.006840333333333334</v>
+        <v>0.02027766666666667</v>
       </c>
       <c r="N4">
-        <v>0.020521</v>
+        <v>0.060833</v>
       </c>
       <c r="O4">
-        <v>0.2055347448969372</v>
+        <v>0.7477567175553752</v>
       </c>
       <c r="P4">
-        <v>0.2055347448969372</v>
+        <v>0.7477567175553753</v>
       </c>
       <c r="Q4">
-        <v>1.393934513541556</v>
+        <v>1.280343823638222</v>
       </c>
       <c r="R4">
-        <v>12.545410621874</v>
+        <v>11.523094412744</v>
       </c>
       <c r="S4">
-        <v>0.1370367475763606</v>
+        <v>0.2554192936378822</v>
       </c>
       <c r="T4">
-        <v>0.1370367475763606</v>
+        <v>0.2554192936378823</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.006162666666666667</v>
+        <v>0.006840333333333334</v>
       </c>
       <c r="N5">
-        <v>0.018488</v>
+        <v>0.020521</v>
       </c>
       <c r="O5">
-        <v>0.1851725726648104</v>
+        <v>0.2522432824446247</v>
       </c>
       <c r="P5">
-        <v>0.1851725726648104</v>
+        <v>0.2522432824446247</v>
       </c>
       <c r="Q5">
-        <v>0.3891144051982223</v>
+        <v>0.4319026779031111</v>
       </c>
       <c r="R5">
-        <v>3.502029646784</v>
+        <v>3.887124101128</v>
       </c>
       <c r="S5">
-        <v>0.03825357074199801</v>
+        <v>0.08616144731877405</v>
       </c>
       <c r="T5">
-        <v>0.03825357074199801</v>
+        <v>0.08616144731877405</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.14058933333334</v>
+        <v>38.719942</v>
       </c>
       <c r="H6">
-        <v>189.421768</v>
+        <v>116.159826</v>
       </c>
       <c r="I6">
-        <v>0.2065833519051582</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J6">
-        <v>0.2065833519051582</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,30 +803,30 @@
         <v>0.02027766666666667</v>
       </c>
       <c r="N6">
-        <v>0.06083300000000001</v>
+        <v>0.060833</v>
       </c>
       <c r="O6">
-        <v>0.6092926824382525</v>
+        <v>0.7477567175553752</v>
       </c>
       <c r="P6">
-        <v>0.6092926824382525</v>
+        <v>0.7477567175553753</v>
       </c>
       <c r="Q6">
-        <v>1.280343823638223</v>
+        <v>0.7851500772286667</v>
       </c>
       <c r="R6">
-        <v>11.523094412744</v>
+        <v>7.066350695058</v>
       </c>
       <c r="S6">
-        <v>0.1258697246293793</v>
+        <v>0.1566317378371176</v>
       </c>
       <c r="T6">
-        <v>0.1258697246293793</v>
+        <v>0.1566317378371176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.14058933333334</v>
+        <v>38.719942</v>
       </c>
       <c r="H7">
-        <v>189.421768</v>
+        <v>116.159826</v>
       </c>
       <c r="I7">
-        <v>0.2065833519051582</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J7">
-        <v>0.2065833519051582</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,208 +868,22 @@
         <v>0.020521</v>
       </c>
       <c r="O7">
-        <v>0.2055347448969372</v>
+        <v>0.2522432824446247</v>
       </c>
       <c r="P7">
-        <v>0.2055347448969372</v>
+        <v>0.2522432824446247</v>
       </c>
       <c r="Q7">
-        <v>0.4319026779031112</v>
+        <v>0.2648573099273334</v>
       </c>
       <c r="R7">
-        <v>3.887124101128001</v>
+        <v>2.383715789346</v>
       </c>
       <c r="S7">
-        <v>0.04246005653378089</v>
+        <v>0.05283710966343088</v>
       </c>
       <c r="T7">
-        <v>0.04246005653378089</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>38.719942</v>
-      </c>
-      <c r="H8">
-        <v>116.159826</v>
-      </c>
-      <c r="I8">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="J8">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.006162666666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.018488</v>
-      </c>
-      <c r="O8">
-        <v>0.1851725726648104</v>
-      </c>
-      <c r="P8">
-        <v>0.1851725726648104</v>
-      </c>
-      <c r="Q8">
-        <v>0.2386180958986666</v>
-      </c>
-      <c r="R8">
-        <v>2.147562863088</v>
-      </c>
-      <c r="S8">
-        <v>0.02345838162205929</v>
-      </c>
-      <c r="T8">
-        <v>0.02345838162205929</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>38.719942</v>
-      </c>
-      <c r="H9">
-        <v>116.159826</v>
-      </c>
-      <c r="I9">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="J9">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.02027766666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.06083300000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.6092926824382525</v>
-      </c>
-      <c r="P9">
-        <v>0.6092926824382525</v>
-      </c>
-      <c r="Q9">
-        <v>0.7851500772286667</v>
-      </c>
-      <c r="R9">
-        <v>7.066350695058</v>
-      </c>
-      <c r="S9">
-        <v>0.07718756648716643</v>
-      </c>
-      <c r="T9">
-        <v>0.07718756648716643</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>38.719942</v>
-      </c>
-      <c r="H10">
-        <v>116.159826</v>
-      </c>
-      <c r="I10">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="J10">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.006840333333333334</v>
-      </c>
-      <c r="N10">
-        <v>0.020521</v>
-      </c>
-      <c r="O10">
-        <v>0.2055347448969372</v>
-      </c>
-      <c r="P10">
-        <v>0.2055347448969372</v>
-      </c>
-      <c r="Q10">
-        <v>0.2648573099273333</v>
-      </c>
-      <c r="R10">
-        <v>2.383715789346</v>
-      </c>
-      <c r="S10">
-        <v>0.02603794078679569</v>
-      </c>
-      <c r="T10">
-        <v>0.02603794078679569</v>
+        <v>0.05283710966343088</v>
       </c>
     </row>
   </sheetData>
